--- a/data/raw_analysis/quantity_zero_by_manufacturer.xlsx
+++ b/data/raw_analysis/quantity_zero_by_manufacturer.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="126">
   <si>
     <t>Quantity</t>
   </si>
@@ -238,6 +238,9 @@
     <t>MECARM</t>
   </si>
   <si>
+    <t>MET4L LEVE</t>
+  </si>
+  <si>
     <t>METAL DS</t>
   </si>
   <si>
@@ -301,6 +304,9 @@
     <t>RIKKOPARTS</t>
   </si>
   <si>
+    <t>S411O</t>
+  </si>
+  <si>
     <t>SABÓ</t>
   </si>
   <si>
@@ -386,9 +392,6 @@
   </si>
   <si>
     <t>ZM</t>
-  </si>
-  <si>
-    <t>ima</t>
   </si>
 </sst>
 </file>
@@ -746,7 +749,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B124"/>
+  <dimension ref="A1:B125"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1341,7 +1344,7 @@
         <v>74</v>
       </c>
       <c r="B74">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -1349,7 +1352,7 @@
         <v>75</v>
       </c>
       <c r="B75">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -1357,7 +1360,7 @@
         <v>76</v>
       </c>
       <c r="B76">
-        <v>28</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -1365,7 +1368,7 @@
         <v>77</v>
       </c>
       <c r="B77">
-        <v>296</v>
+        <v>28</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -1373,7 +1376,7 @@
         <v>78</v>
       </c>
       <c r="B78">
-        <v>63</v>
+        <v>296</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -1381,7 +1384,7 @@
         <v>79</v>
       </c>
       <c r="B79">
-        <v>1</v>
+        <v>63</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -1389,7 +1392,7 @@
         <v>80</v>
       </c>
       <c r="B80">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -1397,7 +1400,7 @@
         <v>81</v>
       </c>
       <c r="B81">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -1405,7 +1408,7 @@
         <v>82</v>
       </c>
       <c r="B82">
-        <v>33</v>
+        <v>11</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -1413,7 +1416,7 @@
         <v>83</v>
       </c>
       <c r="B83">
-        <v>6</v>
+        <v>33</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -1421,7 +1424,7 @@
         <v>84</v>
       </c>
       <c r="B84">
-        <v>26</v>
+        <v>6</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -1429,7 +1432,7 @@
         <v>85</v>
       </c>
       <c r="B85">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -1437,7 +1440,7 @@
         <v>86</v>
       </c>
       <c r="B86">
-        <v>10</v>
+        <v>29</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -1445,7 +1448,7 @@
         <v>87</v>
       </c>
       <c r="B87">
-        <v>21</v>
+        <v>10</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -1453,7 +1456,7 @@
         <v>88</v>
       </c>
       <c r="B88">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -1461,7 +1464,7 @@
         <v>89</v>
       </c>
       <c r="B89">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -1469,7 +1472,7 @@
         <v>90</v>
       </c>
       <c r="B90">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -1477,7 +1480,7 @@
         <v>91</v>
       </c>
       <c r="B91">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -1485,7 +1488,7 @@
         <v>92</v>
       </c>
       <c r="B92">
-        <v>51</v>
+        <v>10</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -1493,7 +1496,7 @@
         <v>93</v>
       </c>
       <c r="B93">
-        <v>8</v>
+        <v>51</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -1501,7 +1504,7 @@
         <v>94</v>
       </c>
       <c r="B94">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -1509,7 +1512,7 @@
         <v>95</v>
       </c>
       <c r="B95">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -1517,7 +1520,7 @@
         <v>96</v>
       </c>
       <c r="B96">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -1525,7 +1528,7 @@
         <v>97</v>
       </c>
       <c r="B97">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -1533,7 +1536,7 @@
         <v>98</v>
       </c>
       <c r="B98">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -1541,7 +1544,7 @@
         <v>99</v>
       </c>
       <c r="B99">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -1549,7 +1552,7 @@
         <v>100</v>
       </c>
       <c r="B100">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -1557,7 +1560,7 @@
         <v>101</v>
       </c>
       <c r="B101">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -1565,7 +1568,7 @@
         <v>102</v>
       </c>
       <c r="B102">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -1573,7 +1576,7 @@
         <v>103</v>
       </c>
       <c r="B103">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -1581,7 +1584,7 @@
         <v>104</v>
       </c>
       <c r="B104">
-        <v>214</v>
+        <v>9</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -1589,7 +1592,7 @@
         <v>105</v>
       </c>
       <c r="B105">
-        <v>80</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -1597,7 +1600,7 @@
         <v>106</v>
       </c>
       <c r="B106">
-        <v>25</v>
+        <v>214</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -1605,7 +1608,7 @@
         <v>107</v>
       </c>
       <c r="B107">
-        <v>12</v>
+        <v>80</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -1613,7 +1616,7 @@
         <v>108</v>
       </c>
       <c r="B108">
-        <v>9</v>
+        <v>25</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -1621,7 +1624,7 @@
         <v>109</v>
       </c>
       <c r="B109">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -1629,7 +1632,7 @@
         <v>110</v>
       </c>
       <c r="B110">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -1637,7 +1640,7 @@
         <v>111</v>
       </c>
       <c r="B111">
-        <v>48</v>
+        <v>6</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -1645,7 +1648,7 @@
         <v>112</v>
       </c>
       <c r="B112">
-        <v>2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -1653,7 +1656,7 @@
         <v>113</v>
       </c>
       <c r="B113">
-        <v>12</v>
+        <v>48</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -1661,7 +1664,7 @@
         <v>114</v>
       </c>
       <c r="B114">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -1669,7 +1672,7 @@
         <v>115</v>
       </c>
       <c r="B115">
-        <v>201</v>
+        <v>12</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -1677,7 +1680,7 @@
         <v>116</v>
       </c>
       <c r="B116">
-        <v>30</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -1685,7 +1688,7 @@
         <v>117</v>
       </c>
       <c r="B117">
-        <v>63</v>
+        <v>201</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -1693,7 +1696,7 @@
         <v>118</v>
       </c>
       <c r="B118">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -1701,7 +1704,7 @@
         <v>119</v>
       </c>
       <c r="B119">
-        <v>3</v>
+        <v>63</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -1709,7 +1712,7 @@
         <v>120</v>
       </c>
       <c r="B120">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -1717,7 +1720,7 @@
         <v>121</v>
       </c>
       <c r="B121">
-        <v>37</v>
+        <v>3</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -1725,7 +1728,7 @@
         <v>122</v>
       </c>
       <c r="B122">
-        <v>60</v>
+        <v>16</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -1733,7 +1736,7 @@
         <v>123</v>
       </c>
       <c r="B123">
-        <v>87</v>
+        <v>37</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -1741,7 +1744,15 @@
         <v>124</v>
       </c>
       <c r="B124">
-        <v>314</v>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2">
+      <c r="A125" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B125">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
